--- a/medicine/Médecine vétérinaire/Déchet_d'abattoir/Déchet_d'abattoir.xlsx
+++ b/medicine/Médecine vétérinaire/Déchet_d'abattoir/Déchet_d'abattoir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9chet_d%27abattoir</t>
+          <t>Déchet_d'abattoir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les déchets d’abattoir sont des sous-produits agricoles valorisés comme engrais, amendement et pour l'alimentation animale. Il s'agit des morceaux des carcasses bouchères qui sont impropres à l'alimentation humaine. Ces « déchets » proviennent essentiellement des abattoirs, des boucheries et parfois des fermes quand ils ne sont pas compostés directement sur place.
  Portail de l’élevage   Portail de l’agriculture et l’agronomie   Alimentation et gastronomie   Portail de la médecine vétérinaire                  </t>
